--- a/Resultados/Material + Ano + Estrutura/Template.xlsx
+++ b/Resultados/Material + Ano + Estrutura/Template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\ResNet\Tentativa 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A546D0F1-E39B-42CC-9C1B-575C9908F1B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12CFCE5-FC83-4771-8422-026BC93F808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -464,7 +464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -585,6 +585,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -601,10 +604,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1237,7 +1236,7 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:E13"/>
     </sheetView>
   </sheetViews>
@@ -1268,109 +1267,109 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="54"/>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="55"/>
-      <c r="C12" s="55"/>
-      <c r="D12" s="55"/>
-      <c r="E12" s="55"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="55"/>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1747,19 +1746,19 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B1"/>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="49" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
-      <c r="K1" s="48"/>
-      <c r="L1" s="48"/>
-      <c r="M1" s="48"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B2"/>
@@ -1798,7 +1797,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49" t="str">
+      <c r="A3" s="50" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -1822,7 +1821,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1843,7 +1842,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1864,7 +1863,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1885,7 +1884,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="49"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1906,7 +1905,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="49"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1927,7 +1926,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="49"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1948,7 +1947,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="49"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -1969,7 +1968,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="49"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -1990,7 +1989,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="49"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2011,7 +2010,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="49"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2097,9 +2096,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2108,7 +2107,7 @@
     <col min="2" max="2" width="10.6328125" style="9" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.453125" style="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.6328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.36328125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.90625" style="19" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="16.26953125" style="26" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.6328125" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9" style="26" bestFit="1" customWidth="1"/>
@@ -2176,15 +2175,15 @@
       <c r="V1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="53" t="s">
+      <c r="X1" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="Y1" s="53"/>
-      <c r="Z1" s="53"/>
-      <c r="AA1" s="53"/>
+      <c r="Y1" s="54"/>
+      <c r="Z1" s="54"/>
+      <c r="AA1" s="54"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="49" t="s">
+      <c r="A2" s="50" t="s">
         <v>30</v>
       </c>
       <c r="B2" s="22"/>
@@ -2204,7 +2203,7 @@
         <f>VLOOKUP(C2,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="22"/>
@@ -2250,7 +2249,7 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="49"/>
+      <c r="A3" s="50"/>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="21" t="str">
@@ -2273,7 +2272,7 @@
         <f t="shared" ref="H3:H6" si="5">VLOOKUP(C3,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J3" s="49"/>
+      <c r="J3" s="50"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="21" t="str">
@@ -2319,7 +2318,7 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="49"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
       <c r="D4" s="21" t="str">
@@ -2342,7 +2341,7 @@
         <f t="shared" si="5"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J4" s="49"/>
+      <c r="J4" s="50"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="21" t="str">
@@ -2388,7 +2387,7 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="49"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="21" t="str">
@@ -2411,7 +2410,7 @@
         <f t="shared" si="5"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J5" s="49"/>
+      <c r="J5" s="50"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="21" t="str">
@@ -2459,7 +2458,7 @@
       </c>
     </row>
     <row r="6" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="49"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="18"/>
       <c r="C6" s="18"/>
       <c r="D6" s="21" t="str">
@@ -2482,7 +2481,7 @@
         <f t="shared" si="5"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J6" s="49"/>
+      <c r="J6" s="50"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="21" t="str">
@@ -2526,7 +2525,7 @@
       </c>
       <c r="Z6" s="42">
         <f t="shared" si="14"/>
-        <v>0.5714285714285714</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
@@ -2536,7 +2535,7 @@
       <c r="E7" s="11"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
-      <c r="J7" s="49"/>
+      <c r="J7" s="50"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="21" t="str">
@@ -2584,7 +2583,7 @@
       </c>
     </row>
     <row r="8" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="51" t="s">
         <v>31</v>
       </c>
       <c r="B8" s="22"/>
@@ -2605,7 +2604,7 @@
         <f>VLOOKUP(C8,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J8" s="49"/>
+      <c r="J8" s="50"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="21" t="str">
@@ -2653,17 +2652,25 @@
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="51"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="18"/>
       <c r="C9" s="18"/>
       <c r="D9" s="21" t="str">
         <f>COUNTIF(F9,$F$8)+COUNTIF(G9,$G$8)+COUNTIF(H9,$H$8)&amp;" ("&amp; IF(F9=$F$8,"Estrutura, ","") &amp; IF(G9=$G$8,"Ano, ","") &amp;IF(H9=$H$8,"Material","") &amp; IF(OR(F9=$F$8,G9=$G$8,H9=$H$8),"","Nenhuma") &amp;")"</f>
-        <v>1 (Ano, Material)</v>
+        <v>2 (Ano, Material)</v>
       </c>
       <c r="E9" s="19" t="e">
         <f>ROUND(B9/SUM($B$8:$B$10)*100,0) &amp;"%"</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="F9" s="26">
+        <f>VLOOKUP(C9,$S$1:$V$12,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G9" s="26">
+        <f>VLOOKUP(C9,$S$1:$V$12,3,FALSE)</f>
+        <v>0</v>
+      </c>
       <c r="H9" s="26" t="str">
         <f>VLOOKUP(C9,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
@@ -2682,18 +2689,18 @@
       </c>
       <c r="X9" s="18">
         <f t="shared" si="13"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="Z9" s="42">
         <f t="shared" si="14"/>
-        <v>0.42857142857142855</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="21" t="str">
@@ -2716,7 +2723,7 @@
         <f>VLOOKUP(C10,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="50" t="s">
         <v>58</v>
       </c>
       <c r="K10" s="22"/>
@@ -2752,11 +2759,11 @@
       </c>
       <c r="X10" s="9">
         <f>SUM(X3:X9)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J11" s="49"/>
+      <c r="J11" s="50"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="21" t="str">
@@ -2793,7 +2800,7 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="51" t="s">
         <v>32</v>
       </c>
       <c r="B12" s="22"/>
@@ -2814,7 +2821,7 @@
         <f>VLOOKUP(C12,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J12" s="49"/>
+      <c r="J12" s="50"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="21" t="str">
@@ -2851,7 +2858,7 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="51"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="21" t="str">
@@ -2874,7 +2881,7 @@
         <f>VLOOKUP(C13,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J13" s="49"/>
+      <c r="J13" s="50"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="21" t="str">
@@ -2899,7 +2906,7 @@
       </c>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="21" t="str">
@@ -2922,7 +2929,7 @@
         <f>VLOOKUP(C14,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J14" s="49"/>
+      <c r="J14" s="50"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="21" t="str">
@@ -2947,7 +2954,7 @@
       </c>
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J15" s="49"/>
+      <c r="J15" s="50"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="21" t="str">
@@ -2972,7 +2979,7 @@
       </c>
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="49" t="s">
+      <c r="A16" s="50" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="22"/>
@@ -2994,7 +3001,7 @@
         <f>VLOOKUP(C16,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J16" s="49"/>
+      <c r="J16" s="50"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="21" t="str">
@@ -3019,7 +3026,7 @@
       </c>
     </row>
     <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="49"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="21" t="str">
@@ -3044,7 +3051,7 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="49"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="21" t="str">
@@ -3067,7 +3074,7 @@
         <f>VLOOKUP(C18,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J18" s="50" t="s">
+      <c r="J18" s="51" t="s">
         <v>59</v>
       </c>
       <c r="K18" s="22"/>
@@ -3091,7 +3098,7 @@
       </c>
     </row>
     <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="49"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="21" t="str">
@@ -3114,7 +3121,7 @@
         <f>VLOOKUP(C19,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J19" s="51"/>
+      <c r="J19" s="52"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="21" t="str">
@@ -3139,7 +3146,7 @@
       </c>
     </row>
     <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="49"/>
+      <c r="A20" s="50"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="21" t="str">
@@ -3162,7 +3169,7 @@
         <f>VLOOKUP(C20,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J20" s="51"/>
+      <c r="J20" s="52"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="21" t="str">
@@ -3187,7 +3194,7 @@
       </c>
     </row>
     <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J21" s="51"/>
+      <c r="J21" s="52"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="21" t="str">
@@ -3234,7 +3241,7 @@
         <f>VLOOKUP(C22,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J22" s="52"/>
+      <c r="J22" s="53"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="21" t="str">
@@ -3259,7 +3266,7 @@
       </c>
     </row>
     <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="49" t="s">
+      <c r="A24" s="50" t="s">
         <v>56</v>
       </c>
       <c r="B24" s="22"/>
@@ -3281,7 +3288,7 @@
         <f t="shared" ref="H24:H28" si="28">VLOOKUP(C24,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J24" s="49" t="s">
+      <c r="J24" s="50" t="s">
         <v>60</v>
       </c>
       <c r="K24" s="22"/>
@@ -3305,7 +3312,7 @@
       </c>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="49"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="21" t="str">
@@ -3313,7 +3320,7 @@
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="E25" s="19" t="e">
-        <f>ROUND(B25/SUM($B$16:$B$20)*100,0) &amp;"%"</f>
+        <f>ROUND(B25/SUM($B$24:$B$28)*100,0) &amp;"%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="26">
@@ -3328,7 +3335,7 @@
         <f t="shared" si="28"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J25" s="49"/>
+      <c r="J25" s="50"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="21" t="str">
@@ -3353,7 +3360,7 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="49"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="21" t="str">
@@ -3361,7 +3368,7 @@
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="E26" s="19" t="e">
-        <f>ROUND(B26/SUM($B$16:$B$20)*100,0) &amp;"%"</f>
+        <f t="shared" ref="E26:E28" si="32">ROUND(B26/SUM($B$24:$B$28)*100,0) &amp;"%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F26" s="26">
@@ -3376,19 +3383,19 @@
         <f t="shared" si="28"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J26" s="49"/>
+      <c r="J26" s="50"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="21" t="str">
-        <f t="shared" ref="M26:M29" si="32">COUNTIF(O26,$O$24)+COUNTIF(P26,$P$24)+COUNTIF(Q26,$Q$24)&amp;" ("&amp; IF(O26=$O$24,"Estrutura, ","") &amp; IF(P26=$P$24,"Ano, ","") &amp;IF(Q26=$Q$24,"Material","") &amp; IF(OR(O26=$O$24,P26=$P$24,Q26=$Q$24),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M26:M29" si="33">COUNTIF(O26,$O$24)+COUNTIF(P26,$P$24)+COUNTIF(Q26,$Q$24)&amp;" ("&amp; IF(O26=$O$24,"Estrutura, ","") &amp; IF(P26=$P$24,"Ano, ","") &amp;IF(Q26=$Q$24,"Material","") &amp; IF(OR(O26=$O$24,P26=$P$24,Q26=$Q$24),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="N26" s="19" t="e">
-        <f t="shared" ref="N26:N29" si="33">ROUND(K26/SUM($K$24:$K$29)*100,1) &amp;"%"</f>
+        <f t="shared" ref="N26:N29" si="34">ROUND(K26/SUM($K$24:$K$29)*100,1) &amp;"%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" ref="O26:O29" si="34">VLOOKUP(L26,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O26:O29" si="35">VLOOKUP(L26,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P26" s="26">
@@ -3401,7 +3408,7 @@
       </c>
     </row>
     <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="49"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="21" t="str">
@@ -3409,7 +3416,7 @@
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="E27" s="19" t="e">
-        <f>ROUND(B27/SUM($B$16:$B$20)*100,0) &amp;"%"</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F27" s="26">
@@ -3424,19 +3431,19 @@
         <f t="shared" si="28"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J27" s="49"/>
+      <c r="J27" s="50"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="21" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="N27" s="19" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O27" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P27" s="26">
@@ -3449,7 +3456,7 @@
       </c>
     </row>
     <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="49"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="21" t="str">
@@ -3457,7 +3464,7 @@
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="E28" s="19" t="e">
-        <f>ROUND(B28/SUM($B$16:$B$20)*100,0) &amp;"%"</f>
+        <f t="shared" si="32"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F28" s="26">
@@ -3472,19 +3479,19 @@
         <f t="shared" si="28"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J28" s="49"/>
+      <c r="J28" s="50"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="21" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="N28" s="19" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O28" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P28" s="26">
@@ -3497,19 +3504,19 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="49"/>
+      <c r="J29" s="50"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="21" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="N29" s="19" t="e">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O29" s="26">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="P29" s="26">
@@ -3522,7 +3529,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J31" s="50" t="s">
+      <c r="J31" s="51" t="s">
         <v>61</v>
       </c>
       <c r="K31" s="22"/>
@@ -3537,16 +3544,16 @@
         <v>0</v>
       </c>
       <c r="P31" s="25">
-        <f t="shared" ref="P31:P35" si="35">VLOOKUP(L31,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P31:P35" si="36">VLOOKUP(L31,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="25" t="str">
-        <f t="shared" ref="Q31:Q35" si="36">VLOOKUP(L31,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q31:Q35" si="37">VLOOKUP(L31,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J32" s="51"/>
+      <c r="J32" s="52"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="21" t="str">
@@ -3562,86 +3569,86 @@
         <v>0</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q32" s="26" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="33" spans="10:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J33" s="51"/>
+      <c r="J33" s="52"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="21" t="str">
-        <f t="shared" ref="M33:M35" si="37">COUNTIF(O33,$O$31)+COUNTIF(P33,$P$31)+COUNTIF(Q33,$Q$31)&amp;" ("&amp; IF(O33=$O$31,"Estrutura, ","") &amp; IF(P33=$P$31,"Ano, ","") &amp;IF(Q33=$Q$31,"Material","") &amp; IF(OR(O33=$O$31,P33=$P$31,Q33=$Q$31),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M33:M35" si="38">COUNTIF(O33,$O$31)+COUNTIF(P33,$P$31)+COUNTIF(Q33,$Q$31)&amp;" ("&amp; IF(O33=$O$31,"Estrutura, ","") &amp; IF(P33=$P$31,"Ano, ","") &amp;IF(Q33=$Q$31,"Material","") &amp; IF(OR(O33=$O$31,P33=$P$31,Q33=$Q$31),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
       <c r="N33" s="19" t="e">
-        <f t="shared" ref="N33:N35" si="38">ROUND(K33/SUM($K$31:$K$35)*100,1) &amp;"%"</f>
+        <f t="shared" ref="N33:N35" si="39">ROUND(K33/SUM($K$31:$K$35)*100,1) &amp;"%"</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="26">
-        <f t="shared" ref="O33:O35" si="39">VLOOKUP(L33,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O33:O35" si="40">VLOOKUP(L33,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P33" s="26">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Q33" s="26" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="34" spans="10:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J34" s="51"/>
+      <c r="J34" s="52"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="21" t="str">
+        <f t="shared" si="38"/>
+        <v>3 (Estrutura, Ano, Material)</v>
+      </c>
+      <c r="N34" s="19" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="26">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="26">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26" t="str">
         <f t="shared" si="37"/>
-        <v>3 (Estrutura, Ano, Material)</v>
-      </c>
-      <c r="N34" s="19" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="26">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="26">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="26" t="str">
-        <f t="shared" si="36"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="35" spans="10:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J35" s="52"/>
+      <c r="J35" s="53"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="21" t="str">
+        <f t="shared" si="38"/>
+        <v>3 (Estrutura, Ano, Material)</v>
+      </c>
+      <c r="N35" s="19" t="e">
+        <f t="shared" si="39"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="26">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="26">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="26" t="str">
         <f t="shared" si="37"/>
-        <v>3 (Estrutura, Ano, Material)</v>
-      </c>
-      <c r="N35" s="19" t="e">
-        <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="26">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="26">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26" t="str">
-        <f t="shared" si="36"/>
         <v>Alvenaria</v>
       </c>
     </row>

--- a/Resultados/Material + Ano + Estrutura/Template.xlsx
+++ b/Resultados/Material + Ano + Estrutura/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12CFCE5-FC83-4771-8422-026BC93F808E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE15C8C3-C590-4A98-AF84-BD714E872558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="4" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="3" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" r:id="rId1"/>
@@ -321,7 +321,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -349,6 +349,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -464,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -606,6 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1732,10 +1739,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4733B8BE-9A12-402E-83C5-F44A953F201E}">
   <sheetPr codeName="Folha4"/>
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:M13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P3" sqref="P3:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1744,7 +1751,7 @@
     <col min="2" max="2" width="8.7265625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1"/>
       <c r="C1" s="49" t="s">
         <v>43</v>
@@ -1760,7 +1767,7 @@
       <c r="L1" s="49"/>
       <c r="M1" s="49"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2"/>
       <c r="C2" s="45">
         <v>0</v>
@@ -1796,7 +1803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="50" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
@@ -1819,8 +1826,11 @@
         <f>SUM(C3:M3)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="55">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="50"/>
       <c r="B4" s="1">
         <v>1</v>
@@ -1840,8 +1850,11 @@
         <f t="shared" ref="N4:N13" si="0">SUM(C4:M4)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P4" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50"/>
       <c r="B5" s="1">
         <v>2</v>
@@ -1861,8 +1874,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P5" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="50"/>
       <c r="B6" s="1">
         <v>3</v>
@@ -1882,8 +1898,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P6" s="55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="50"/>
       <c r="B7" s="1">
         <v>4</v>
@@ -1903,8 +1922,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P7" s="55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="50"/>
       <c r="B8" s="1">
         <v>5</v>
@@ -1924,8 +1946,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P8" s="55">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="50"/>
       <c r="B9" s="1">
         <v>6</v>
@@ -1945,8 +1970,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P9" s="55">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="50"/>
       <c r="B10" s="1">
         <v>7</v>
@@ -1966,8 +1994,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P10" s="55">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="50"/>
       <c r="B11" s="1">
         <v>8</v>
@@ -1987,8 +2018,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P11" s="55">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="50"/>
       <c r="B12" s="1">
         <v>9</v>
@@ -2008,8 +2042,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="P12" s="55">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="50"/>
       <c r="B13" s="1">
         <v>10</v>
@@ -2029,8 +2066,11 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="P13" s="55">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="C14">
         <f>SUM(C3:C13)</f>
         <v>0</v>
@@ -2096,7 +2136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
     </sheetView>

--- a/Resultados/Material + Ano + Estrutura/Template.xlsx
+++ b/Resultados/Material + Ano + Estrutura/Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206BAE8-1E00-4F5A-A92C-4A1EA249F2CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488C0BD-E06D-4E94-9AB4-AC4D52E79240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -470,7 +470,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -589,6 +589,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -598,6 +607,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
@@ -606,21 +618,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1373,19 +1370,19 @@
       <c r="A12" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
@@ -1765,19 +1762,19 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B1"/>
-      <c r="C1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="52"/>
+      <c r="K1" s="52"/>
+      <c r="L1" s="52"/>
+      <c r="M1" s="52"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="B2"/>
@@ -1816,7 +1813,7 @@
       </c>
     </row>
     <row r="3" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50" t="str">
+      <c r="A3" s="53" t="str">
         <f>"Verdadeiro"</f>
         <v>Verdadeiro</v>
       </c>
@@ -1843,7 +1840,7 @@
       </c>
     </row>
     <row r="4" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="1">
         <v>1</v>
       </c>
@@ -1867,7 +1864,7 @@
       </c>
     </row>
     <row r="5" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1891,7 +1888,7 @@
       </c>
     </row>
     <row r="6" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="1">
         <v>3</v>
       </c>
@@ -1915,7 +1912,7 @@
       </c>
     </row>
     <row r="7" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="1">
         <v>4</v>
       </c>
@@ -1939,7 +1936,7 @@
       </c>
     </row>
     <row r="8" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="50"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="1">
         <v>5</v>
       </c>
@@ -1963,7 +1960,7 @@
       </c>
     </row>
     <row r="9" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="1">
         <v>6</v>
       </c>
@@ -1987,7 +1984,7 @@
       </c>
     </row>
     <row r="10" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="1">
         <v>7</v>
       </c>
@@ -2011,7 +2008,7 @@
       </c>
     </row>
     <row r="11" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="1">
         <v>8</v>
       </c>
@@ -2035,7 +2032,7 @@
       </c>
     </row>
     <row r="12" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="1">
         <v>9</v>
       </c>
@@ -2059,7 +2056,7 @@
       </c>
     </row>
     <row r="13" spans="1:16" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="1">
         <v>10</v>
       </c>
@@ -2148,9 +2145,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N25" sqref="N25:N29"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2235,10 +2232,10 @@
       <c r="AA1" s="54"/>
     </row>
     <row r="2" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="53" t="s">
         <v>30</v>
       </c>
-      <c r="B2" s="56"/>
+      <c r="B2" s="49"/>
       <c r="C2" s="22">
         <v>0</v>
       </c>
@@ -2257,7 +2254,7 @@
         <f>VLOOKUP(C2,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J2" s="50" t="s">
+      <c r="J2" s="53" t="s">
         <v>57</v>
       </c>
       <c r="K2" s="22"/>
@@ -2303,14 +2300,14 @@
       </c>
     </row>
     <row r="3" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="50"/>
-      <c r="B3" s="57"/>
+      <c r="A3" s="53"/>
+      <c r="B3" s="50"/>
       <c r="C3" s="18"/>
       <c r="D3" s="21" t="str">
         <f>COUNTIF(F3,$F$2)+COUNTIF(G3,$G$2)+COUNTIF(H3,$H$2)&amp;" ("&amp; IF(F3=$F$2,"Estrutura, ","") &amp; IF(G3=$G$2,"Ano, ","") &amp;IF(H3=$H$2,"Material","") &amp; IF(OR(F3=$F$2,G3=$G$2,H3=$H$2),"","Nenhuma") &amp;")"</f>
         <v>1 (Material)</v>
       </c>
-      <c r="E3" s="55" t="e">
+      <c r="E3" s="48" t="e">
         <f>B3/SUM($B$2:$B$7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2326,14 +2323,14 @@
         <f t="shared" ref="H3:H6" si="5">VLOOKUP(C3,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J3" s="50"/>
+      <c r="J3" s="53"/>
       <c r="K3" s="18"/>
       <c r="L3" s="18"/>
       <c r="M3" s="21" t="str">
         <f>COUNTIF(O3,$O$2)+COUNTIF(P3,$P$2)+COUNTIF(Q3,$Q$2)&amp;" ("&amp; IF(O3=$O$2,"Estrutura, ","") &amp; IF(P3=$P$2,"Ano, ","") &amp;IF(Q3=$Q$2,"Material","") &amp; IF(OR(O3=$O$2,P3=$P$2,Q3=$Q$2),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N3" s="55" t="e">
+      <c r="N3" s="48" t="e">
         <f>K3/SUM($K$2:$K$8)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2360,7 +2357,7 @@
         <v>26</v>
       </c>
       <c r="X3" s="18">
-        <f>COUNTIF($D:$D,Y3)+COUNTIF($M:$M,Y3)</f>
+        <f t="shared" ref="X3:X9" si="6">COUNTIF($D:$D,Y3)+COUNTIF($M:$M,Y3)</f>
         <v>20</v>
       </c>
       <c r="Y3" s="21" t="s">
@@ -2372,15 +2369,15 @@
       </c>
     </row>
     <row r="4" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="50"/>
-      <c r="B4" s="57"/>
+      <c r="A4" s="53"/>
+      <c r="B4" s="50"/>
       <c r="C4" s="18"/>
       <c r="D4" s="21" t="str">
-        <f t="shared" ref="D4:D7" si="6">COUNTIF(F4,$F$2)+COUNTIF(G4,$G$2)+COUNTIF(H4,$H$2)&amp;" ("&amp; IF(F4=$F$2,"Estrutura, ","") &amp; IF(G4=$G$2,"Ano, ","") &amp;IF(H4=$H$2,"Material","") &amp; IF(OR(F4=$F$2,G4=$G$2,H4=$H$2),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D4:D7" si="7">COUNTIF(F4,$F$2)+COUNTIF(G4,$G$2)+COUNTIF(H4,$H$2)&amp;" ("&amp; IF(F4=$F$2,"Estrutura, ","") &amp; IF(G4=$G$2,"Ano, ","") &amp;IF(H4=$H$2,"Material","") &amp; IF(OR(F4=$F$2,G4=$G$2,H4=$H$2),"","Nenhuma") &amp;")"</f>
         <v>1 (Material)</v>
       </c>
-      <c r="E4" s="55" t="e">
-        <f t="shared" ref="E4:E7" si="7">B4/SUM($B$2:$B$7)</f>
+      <c r="E4" s="48" t="e">
+        <f t="shared" ref="E4:E7" si="8">B4/SUM($B$2:$B$7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F4" s="26">
@@ -2395,27 +2392,27 @@
         <f t="shared" si="5"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J4" s="50"/>
+      <c r="J4" s="53"/>
       <c r="K4" s="18"/>
       <c r="L4" s="18"/>
       <c r="M4" s="21" t="str">
-        <f t="shared" ref="M4:M8" si="8">COUNTIF(O4,$O$2)+COUNTIF(P4,$P$2)+COUNTIF(Q4,$Q$2)&amp;" ("&amp; IF(O4=$O$2,"Estrutura, ","") &amp; IF(P4=$P$2,"Ano, ","") &amp;IF(Q4=$Q$2,"Material","") &amp; IF(OR(O4=$O$2,P4=$P$2,Q4=$Q$2),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M4:M8" si="9">COUNTIF(O4,$O$2)+COUNTIF(P4,$P$2)+COUNTIF(Q4,$Q$2)&amp;" ("&amp; IF(O4=$O$2,"Estrutura, ","") &amp; IF(P4=$P$2,"Ano, ","") &amp;IF(Q4=$Q$2,"Material","") &amp; IF(OR(O4=$O$2,P4=$P$2,Q4=$Q$2),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N4" s="55" t="e">
-        <f t="shared" ref="N4:N8" si="9">K4/SUM($K$2:$K$8)</f>
+      <c r="N4" s="48" t="e">
+        <f t="shared" ref="N4:N8" si="10">K4/SUM($K$2:$K$8)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O4" s="26">
-        <f t="shared" ref="O4:O8" si="10">VLOOKUP(L4,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O4:O8" si="11">VLOOKUP(L4,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P4" s="26">
-        <f t="shared" ref="P4:P8" si="11">VLOOKUP(L4,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P4:P8" si="12">VLOOKUP(L4,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q4" s="26" t="str">
-        <f t="shared" ref="Q4:Q8" si="12">VLOOKUP(L4,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q4:Q8" si="13">VLOOKUP(L4,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
       <c r="S4" s="18">
@@ -2429,27 +2426,27 @@
         <v>26</v>
       </c>
       <c r="X4" s="18">
-        <f>COUNTIF($D:$D,Y4)+COUNTIF($M:$M,Y4)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y4" s="21" t="s">
         <v>50</v>
       </c>
       <c r="Z4" s="42">
-        <f t="shared" ref="Z4:Z9" si="13">X4/$X$10</f>
+        <f t="shared" ref="Z4:Z9" si="14">X4/$X$10</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="50"/>
-      <c r="B5" s="57"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="18"/>
       <c r="D5" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1 (Material)</v>
       </c>
-      <c r="E5" s="55" t="e">
-        <f t="shared" si="7"/>
+      <c r="E5" s="48" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F5" s="26">
@@ -2464,27 +2461,27 @@
         <f t="shared" si="5"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J5" s="50"/>
+      <c r="J5" s="53"/>
       <c r="K5" s="18"/>
       <c r="L5" s="18"/>
       <c r="M5" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N5" s="55" t="e">
-        <f t="shared" si="9"/>
+      <c r="N5" s="48" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O5" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P5" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q5" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Alvenaria</v>
       </c>
       <c r="S5" s="18">
@@ -2500,27 +2497,27 @@
         <v>25</v>
       </c>
       <c r="X5" s="18">
-        <f>COUNTIF($D:$D,Y5)+COUNTIF($M:$M,Y5)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y5" s="21" t="s">
         <v>39</v>
       </c>
       <c r="Z5" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="50"/>
-      <c r="B6" s="57"/>
+      <c r="A6" s="53"/>
+      <c r="B6" s="50"/>
       <c r="C6" s="18"/>
       <c r="D6" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1 (Material)</v>
       </c>
-      <c r="E6" s="55" t="e">
-        <f t="shared" si="7"/>
+      <c r="E6" s="48" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F6" s="26">
@@ -2535,27 +2532,27 @@
         <f t="shared" si="5"/>
         <v>Alvenaria</v>
       </c>
-      <c r="J6" s="50"/>
+      <c r="J6" s="53"/>
       <c r="K6" s="18"/>
       <c r="L6" s="18"/>
       <c r="M6" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N6" s="55" t="e">
-        <f t="shared" si="9"/>
+      <c r="N6" s="48" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O6" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P6" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q6" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Alvenaria</v>
       </c>
       <c r="S6" s="18">
@@ -2571,62 +2568,62 @@
         <v>25</v>
       </c>
       <c r="X6" s="18">
-        <f>COUNTIF($D:$D,Y6)+COUNTIF($M:$M,Y6)</f>
+        <f t="shared" si="6"/>
         <v>5</v>
       </c>
       <c r="Y6" s="21" t="s">
         <v>51</v>
       </c>
       <c r="Z6" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="18"/>
       <c r="C7" s="18"/>
       <c r="D7" s="21" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1 (Material)</v>
       </c>
-      <c r="E7" s="55" t="e">
-        <f t="shared" si="7"/>
+      <c r="E7" s="48" t="e">
+        <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F7" s="26">
-        <f t="shared" ref="F7" si="14">VLOOKUP(C7,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F7" si="15">VLOOKUP(C7,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G7" s="26">
-        <f t="shared" ref="G7" si="15">VLOOKUP(C7,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G7" si="16">VLOOKUP(C7,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H7" s="26" t="str">
-        <f t="shared" ref="H7" si="16">VLOOKUP(C7,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J7" s="50"/>
+        <f t="shared" ref="H7" si="17">VLOOKUP(C7,$S$1:$V$12,4,FALSE)</f>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J7" s="53"/>
       <c r="K7" s="18"/>
       <c r="L7" s="18"/>
       <c r="M7" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N7" s="55" t="e">
-        <f t="shared" si="9"/>
+      <c r="N7" s="48" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O7" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P7" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q7" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Alvenaria</v>
       </c>
       <c r="S7" s="18">
@@ -2642,14 +2639,14 @@
         <v>25</v>
       </c>
       <c r="X7" s="18">
-        <f>COUNTIF($D:$D,Y7)+COUNTIF($M:$M,Y7)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y7" s="21" t="s">
         <v>52</v>
       </c>
       <c r="Z7" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
@@ -2660,27 +2657,27 @@
       <c r="E8" s="11"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
-      <c r="J8" s="50"/>
+      <c r="J8" s="53"/>
       <c r="K8" s="18"/>
       <c r="L8" s="18"/>
       <c r="M8" s="21" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N8" s="55" t="e">
-        <f t="shared" si="9"/>
+      <c r="N8" s="48" t="e">
+        <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O8" s="26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="P8" s="26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="Q8" s="26" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>Alvenaria</v>
       </c>
       <c r="S8" s="18">
@@ -2696,19 +2693,19 @@
         <v>25</v>
       </c>
       <c r="X8" s="18">
-        <f>COUNTIF($D:$D,Y8)+COUNTIF($M:$M,Y8)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y8" s="21" t="s">
         <v>53</v>
       </c>
       <c r="Z8" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="53" t="s">
         <v>31</v>
       </c>
       <c r="B9" s="22"/>
@@ -2744,26 +2741,26 @@
         <v>25</v>
       </c>
       <c r="X9" s="18">
-        <f>COUNTIF($D:$D,Y9)+COUNTIF($M:$M,Y9)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="Y9" s="21" t="s">
         <v>54</v>
       </c>
       <c r="Z9" s="42">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="50"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
       <c r="D10" s="21" t="str">
         <f>COUNTIF(F10,$F$9)+COUNTIF(G10,$G$9)+COUNTIF(H10,$H$9)&amp;" ("&amp; IF(F10=$F$9,"Estrutura, ","") &amp; IF(G10=$G$9,"Ano, ","") &amp;IF(H10=$H$9,"Material","") &amp; IF(OR(F10=$F$9,G10=$G$9,H10=$H$9),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E10" s="55" t="e">
+      <c r="E10" s="48" t="e">
         <f>B10/SUM($B$9:$B$14)</f>
         <v>#DIV/0!</v>
       </c>
@@ -2779,7 +2776,7 @@
         <f>VLOOKUP(C10,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="53" t="s">
         <v>58</v>
       </c>
       <c r="K10" s="22"/>
@@ -2790,15 +2787,15 @@
       </c>
       <c r="N10" s="40"/>
       <c r="O10" s="25">
-        <f t="shared" ref="O10:O16" si="17">VLOOKUP(L10,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O10:O16" si="18">VLOOKUP(L10,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P10" s="25">
-        <f t="shared" ref="P10:P16" si="18">VLOOKUP(L10,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P10:P16" si="19">VLOOKUP(L10,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q10" s="25" t="str">
-        <f t="shared" ref="Q10:Q16" si="19">VLOOKUP(L10,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q10:Q16" si="20">VLOOKUP(L10,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
       <c r="S10" s="18">
@@ -2819,50 +2816,50 @@
       </c>
     </row>
     <row r="11" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="18"/>
       <c r="C11" s="18"/>
       <c r="D11" s="21" t="str">
         <f>COUNTIF(F11,$F$9)+COUNTIF(G11,$G$9)+COUNTIF(H11,$H$9)&amp;" ("&amp; IF(F11=$F$9,"Estrutura, ","") &amp; IF(G11=$G$9,"Ano, ","") &amp;IF(H11=$H$9,"Material","") &amp; IF(OR(F11=$F$9,G11=$G$9,H11=$H$9),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E11" s="55" t="e">
-        <f t="shared" ref="E11:E14" si="20">B11/SUM($B$9:$B$14)</f>
+      <c r="E11" s="48" t="e">
+        <f t="shared" ref="E11:E14" si="21">B11/SUM($B$9:$B$14)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F11" s="26">
-        <f t="shared" ref="F11:F14" si="21">VLOOKUP(C11,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F11:F14" si="22">VLOOKUP(C11,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G11" s="26">
-        <f t="shared" ref="G11:G14" si="22">VLOOKUP(C11,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G11:G14" si="23">VLOOKUP(C11,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H11" s="26" t="str">
-        <f t="shared" ref="H11:H14" si="23">VLOOKUP(C11,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J11" s="50"/>
+        <f t="shared" ref="H11:H14" si="24">VLOOKUP(C11,$S$1:$V$12,4,FALSE)</f>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J11" s="53"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
       <c r="M11" s="21" t="str">
-        <f t="shared" ref="M11:M16" si="24">COUNTIF(O11,$O$10)+COUNTIF(P11,$P$10)+COUNTIF(Q11,$Q$10)&amp;" ("&amp; IF(O11=$O$10,"Estrutura, ","") &amp; IF(P11=$P$10,"Ano, ","") &amp;IF(Q11=$Q$10,"Material","") &amp; IF(OR(O11=$O$10,P11=$P$10,Q11=$Q$10),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M11:M16" si="25">COUNTIF(O11,$O$10)+COUNTIF(P11,$P$10)+COUNTIF(Q11,$Q$10)&amp;" ("&amp; IF(O11=$O$10,"Estrutura, ","") &amp; IF(P11=$P$10,"Ano, ","") &amp;IF(Q11=$Q$10,"Material","") &amp; IF(OR(O11=$O$10,P11=$P$10,Q11=$Q$10),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N11" s="55" t="e">
+      <c r="N11" s="48" t="e">
         <f>K11/SUM($K$10:$K$16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O11" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P11" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q11" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
       <c r="S11" s="18">
@@ -2879,50 +2876,50 @@
       </c>
     </row>
     <row r="12" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="50"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="18"/>
       <c r="C12" s="18"/>
       <c r="D12" s="21" t="str">
-        <f t="shared" ref="D12:D14" si="25">COUNTIF(F12,$F$9)+COUNTIF(G12,$G$9)+COUNTIF(H12,$H$9)&amp;" ("&amp; IF(F12=$F$9,"Estrutura, ","") &amp; IF(G12=$G$9,"Ano, ","") &amp;IF(H12=$H$9,"Material","") &amp; IF(OR(F12=$F$9,G12=$G$9,H12=$H$9),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D12:D14" si="26">COUNTIF(F12,$F$9)+COUNTIF(G12,$G$9)+COUNTIF(H12,$H$9)&amp;" ("&amp; IF(F12=$F$9,"Estrutura, ","") &amp; IF(G12=$G$9,"Ano, ","") &amp;IF(H12=$H$9,"Material","") &amp; IF(OR(F12=$F$9,G12=$G$9,H12=$H$9),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E12" s="55" t="e">
-        <f t="shared" si="20"/>
+      <c r="E12" s="48" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F12" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G12" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H12" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J12" s="50"/>
+        <f t="shared" si="24"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J12" s="53"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
       <c r="M12" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N12" s="55" t="e">
-        <f t="shared" ref="N12:N16" si="26">K12/SUM($K$10:$K$16)</f>
+      <c r="N12" s="48" t="e">
+        <f t="shared" ref="N12:N16" si="27">K12/SUM($K$10:$K$16)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O12" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P12" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q12" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
       <c r="S12" s="18">
@@ -2939,128 +2936,128 @@
       </c>
     </row>
     <row r="13" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="50"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E13" s="55" t="e">
-        <f t="shared" si="20"/>
+      <c r="E13" s="48" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F13" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G13" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H13" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J13" s="50"/>
+        <f t="shared" si="24"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J13" s="53"/>
       <c r="K13" s="18"/>
       <c r="L13" s="18"/>
       <c r="M13" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N13" s="55" t="e">
-        <f t="shared" si="26"/>
+      <c r="N13" s="48" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O13" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P13" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q13" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="14" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="50"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="18"/>
       <c r="C14" s="18"/>
       <c r="D14" s="21" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E14" s="55" t="e">
-        <f t="shared" si="20"/>
+      <c r="E14" s="48" t="e">
+        <f t="shared" si="21"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F14" s="26">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="G14" s="26">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H14" s="26" t="str">
-        <f t="shared" si="23"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J14" s="50"/>
+        <f t="shared" si="24"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J14" s="53"/>
       <c r="K14" s="18"/>
       <c r="L14" s="18"/>
       <c r="M14" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N14" s="55" t="e">
-        <f t="shared" si="26"/>
+      <c r="N14" s="48" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O14" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P14" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q14" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="15" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J15" s="50"/>
+      <c r="J15" s="53"/>
       <c r="K15" s="18"/>
       <c r="L15" s="18"/>
       <c r="M15" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N15" s="55" t="e">
-        <f t="shared" si="26"/>
+      <c r="N15" s="48" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O15" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P15" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q15" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="16" spans="1:27" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="50" t="s">
+      <c r="A16" s="53" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="22"/>
@@ -3083,39 +3080,39 @@
         <f>VLOOKUP(C16,$S$1:$V$12,4,FALSE)</f>
         <v>Aço</v>
       </c>
-      <c r="J16" s="50"/>
+      <c r="J16" s="53"/>
       <c r="K16" s="18"/>
       <c r="L16" s="18"/>
       <c r="M16" s="21" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N16" s="55" t="e">
-        <f t="shared" si="26"/>
+      <c r="N16" s="48" t="e">
+        <f t="shared" si="27"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O16" s="26">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P16" s="26">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="Q16" s="26" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="17" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="50"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="18"/>
       <c r="C17" s="18"/>
       <c r="D17" s="21" t="str">
         <f>COUNTIF(F17,$F$16)+COUNTIF(G17,$G$16)+COUNTIF(H17,$H$16)&amp;" ("&amp; IF(F17=$F$16,"Estrutura, ","") &amp; IF(G17=$G$16,"Ano, ","") &amp;IF(H17=$H$16,"Material","") &amp; IF(OR(F17=$F$16,G17=$G$16,H17=$H$16),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E17" s="55" t="e">
+      <c r="E17" s="48" t="e">
         <f>B17/SUM($B$16:$B$21)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3133,15 +3130,15 @@
       </c>
     </row>
     <row r="18" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="21" t="str">
-        <f t="shared" ref="D18:D21" si="27">COUNTIF(F18,$F$16)+COUNTIF(G18,$G$16)+COUNTIF(H18,$H$16)&amp;" ("&amp; IF(F18=$F$16,"Estrutura, ","") &amp; IF(G18=$G$16,"Ano, ","") &amp;IF(H18=$H$16,"Material","") &amp; IF(OR(F18=$F$16,G18=$G$16,H18=$H$16),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D18:D21" si="28">COUNTIF(F18,$F$16)+COUNTIF(G18,$G$16)+COUNTIF(H18,$H$16)&amp;" ("&amp; IF(F18=$F$16,"Estrutura, ","") &amp; IF(G18=$G$16,"Ano, ","") &amp;IF(H18=$H$16,"Material","") &amp; IF(OR(F18=$F$16,G18=$G$16,H18=$H$16),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E18" s="55" t="e">
-        <f t="shared" ref="E18:E21" si="28">B18/SUM($B$16:$B$21)</f>
+      <c r="E18" s="48" t="e">
+        <f t="shared" ref="E18:E21" si="29">B18/SUM($B$16:$B$21)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F18" s="26">
@@ -3156,7 +3153,7 @@
         <f>VLOOKUP(C18,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
-      <c r="J18" s="51" t="s">
+      <c r="J18" s="55" t="s">
         <v>59</v>
       </c>
       <c r="K18" s="22"/>
@@ -3171,46 +3168,46 @@
         <v>0</v>
       </c>
       <c r="P18" s="25">
-        <f t="shared" ref="P18:P22" si="29">VLOOKUP(L18,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P18:P22" si="30">VLOOKUP(L18,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q18" s="25" t="str">
-        <f t="shared" ref="Q18:Q22" si="30">VLOOKUP(L18,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q18:Q22" si="31">VLOOKUP(L18,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="19" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="50"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="18"/>
       <c r="C19" s="18"/>
       <c r="D19" s="21" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E19" s="55" t="e">
-        <f t="shared" si="28"/>
+      <c r="E19" s="48" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F19" s="26">
-        <f t="shared" ref="F19:F21" si="31">VLOOKUP(C19,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F19:F21" si="32">VLOOKUP(C19,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G19" s="26">
-        <f t="shared" ref="G19:G21" si="32">VLOOKUP(C19,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G19:G21" si="33">VLOOKUP(C19,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H19" s="26" t="str">
-        <f t="shared" ref="H19:H21" si="33">VLOOKUP(C19,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J19" s="52"/>
+        <f t="shared" ref="H19:H21" si="34">VLOOKUP(C19,$S$1:$V$12,4,FALSE)</f>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J19" s="56"/>
       <c r="K19" s="18"/>
       <c r="L19" s="18"/>
       <c r="M19" s="21" t="str">
         <f>COUNTIF(O19,$O$18)+COUNTIF(P19,$P$18)+COUNTIF(Q19,$Q$18)&amp;" ("&amp; IF(O19=$O$18,"Estrutura, ","") &amp; IF(P19=$P$18,"Ano, ","") &amp;IF(Q19=$Q$18,"Material","") &amp; IF(OR(O19=$O$18,P19=$P$18,Q19=$Q$18),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N19" s="55" t="e">
+      <c r="N19" s="48" t="e">
         <f>K19/SUM(K18:K22)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3219,137 +3216,137 @@
         <v>0</v>
       </c>
       <c r="P19" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q19" s="26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="20" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="50"/>
+      <c r="A20" s="53"/>
       <c r="B20" s="18"/>
       <c r="C20" s="18"/>
       <c r="D20" s="21" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E20" s="55" t="e">
-        <f t="shared" si="28"/>
+      <c r="E20" s="48" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F20" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G20" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H20" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J20" s="52"/>
+        <f t="shared" si="34"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J20" s="56"/>
       <c r="K20" s="18"/>
       <c r="L20" s="18"/>
       <c r="M20" s="21" t="str">
-        <f t="shared" ref="M20:M22" si="34">COUNTIF(O20,$O$18)+COUNTIF(P20,$P$18)+COUNTIF(Q20,$Q$18)&amp;" ("&amp; IF(O20=$O$18,"Estrutura, ","") &amp; IF(P20=$P$18,"Ano, ","") &amp;IF(Q20=$Q$18,"Material","") &amp; IF(OR(O20=$O$18,P20=$P$18,Q20=$Q$18),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M20:M22" si="35">COUNTIF(O20,$O$18)+COUNTIF(P20,$P$18)+COUNTIF(Q20,$Q$18)&amp;" ("&amp; IF(O20=$O$18,"Estrutura, ","") &amp; IF(P20=$P$18,"Ano, ","") &amp;IF(Q20=$Q$18,"Material","") &amp; IF(OR(O20=$O$18,P20=$P$18,Q20=$Q$18),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N20" s="55" t="e">
-        <f t="shared" ref="N20:N22" si="35">K20/SUM(K19:K23)</f>
+      <c r="N20" s="48" t="e">
+        <f t="shared" ref="N20:N22" si="36">K20/SUM(K19:K23)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O20" s="26">
-        <f t="shared" ref="O20:O22" si="36">VLOOKUP(L20,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O20:O22" si="37">VLOOKUP(L20,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P20" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q20" s="26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="50"/>
+      <c r="A21" s="53"/>
       <c r="B21" s="18"/>
       <c r="C21" s="18"/>
       <c r="D21" s="21" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E21" s="55" t="e">
-        <f t="shared" si="28"/>
+      <c r="E21" s="48" t="e">
+        <f t="shared" si="29"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F21" s="26">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="G21" s="26">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="H21" s="26" t="str">
-        <f t="shared" si="33"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J21" s="52"/>
+        <f t="shared" si="34"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J21" s="56"/>
       <c r="K21" s="18"/>
       <c r="L21" s="18"/>
       <c r="M21" s="21" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N21" s="55" t="e">
-        <f t="shared" si="35"/>
+      <c r="N21" s="48" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O21" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P21" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q21" s="26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="22" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J22" s="53"/>
+      <c r="J22" s="57"/>
       <c r="K22" s="18"/>
       <c r="L22" s="18"/>
       <c r="M22" s="21" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N22" s="55" t="e">
-        <f t="shared" si="35"/>
+      <c r="N22" s="48" t="e">
+        <f t="shared" si="36"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O22" s="26">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="P22" s="26">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Q22" s="26" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="53" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="22"/>
@@ -3362,43 +3359,43 @@
       </c>
       <c r="E23" s="40"/>
       <c r="F23" s="25" t="str">
-        <f>VLOOKUP(C23,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F23:F28" si="38">VLOOKUP(C23,$S$1:$V$12,2,FALSE)</f>
         <v>Arco</v>
       </c>
       <c r="G23" s="25" t="str">
-        <f>VLOOKUP(C23,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G23:G28" si="39">VLOOKUP(C23,$S$1:$V$12,3,FALSE)</f>
         <v>Antes de 1983</v>
       </c>
       <c r="H23" s="25" t="str">
-        <f>VLOOKUP(C23,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="H23:H28" si="40">VLOOKUP(C23,$S$1:$V$12,4,FALSE)</f>
         <v>Betão Armado</v>
       </c>
     </row>
     <row r="24" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="50"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="21" t="str">
         <f>COUNTIF(F24,$F$23)+COUNTIF(G24,$G$23)+COUNTIF(H24,$H$23)&amp;" ("&amp; IF(F24=$F$23,"Estrutura, ","") &amp; IF(G24=$G$23,"Ano, ","") &amp;IF(H24=$H$23,"Material","") &amp; IF(OR(F24=$F$23,G24=$G$23,H24=$H$23),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E24" s="55" t="e">
-        <f>C24/SUM($B$23:$B$28)</f>
+      <c r="E24" s="48" t="e">
+        <f>B24/SUM($B$23:$B$28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F24" s="26">
-        <f>VLOOKUP(C24,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G24" s="26">
-        <f>VLOOKUP(C24,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H24" s="26" t="str">
-        <f>VLOOKUP(C24,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J24" s="50" t="s">
+        <f t="shared" si="40"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J24" s="53" t="s">
         <v>60</v>
       </c>
       <c r="K24" s="22"/>
@@ -3413,46 +3410,46 @@
         <v>0</v>
       </c>
       <c r="P24" s="25">
-        <f t="shared" ref="P24:P29" si="37">VLOOKUP(L24,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P24:P29" si="41">VLOOKUP(L24,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q24" s="25" t="str">
-        <f t="shared" ref="Q24:Q29" si="38">VLOOKUP(L24,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q24:Q29" si="42">VLOOKUP(L24,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="25" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="50"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="18"/>
       <c r="C25" s="18"/>
       <c r="D25" s="21" t="str">
         <f>COUNTIF(F25,$F$23)+COUNTIF(G25,$G$23)+COUNTIF(H25,$H$23)&amp;" ("&amp; IF(F25=$F$23,"Estrutura, ","") &amp; IF(G25=$G$23,"Ano, ","") &amp;IF(H25=$H$23,"Material","") &amp; IF(OR(F25=$F$23,G25=$G$23,H25=$H$23),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E25" s="55" t="e">
-        <f t="shared" ref="E25:E28" si="39">C25/SUM($B$23:$B$28)</f>
+      <c r="E25" s="48" t="e">
+        <f t="shared" ref="E25:E28" si="43">B25/SUM($B$23:$B$28)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F25" s="26">
-        <f>VLOOKUP(C25,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="G25" s="26">
-        <f>VLOOKUP(C25,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="H25" s="26" t="str">
-        <f>VLOOKUP(C25,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J25" s="50"/>
+        <f t="shared" si="40"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J25" s="53"/>
       <c r="K25" s="18"/>
       <c r="L25" s="18"/>
       <c r="M25" s="21" t="str">
         <f>COUNTIF(O25,$O$24)+COUNTIF(P25,$P$24)+COUNTIF(Q25,$Q$24)&amp;" ("&amp; IF(O25=$O$24,"Estrutura, ","") &amp; IF(P25=$P$24,"Ano, ","") &amp;IF(Q25=$Q$24,"Material","") &amp; IF(OR(O25=$O$24,P25=$P$24,Q25=$Q$24),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N25" s="55" t="e">
+      <c r="N25" s="48" t="e">
         <f>K25/SUM($K$24:$K$29)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3461,185 +3458,185 @@
         <v>0</v>
       </c>
       <c r="P25" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q25" s="26" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="26" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="50"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="18"/>
       <c r="C26" s="18"/>
       <c r="D26" s="21" t="str">
         <f>COUNTIF(F26,$F$23)+COUNTIF(G26,$G$23)+COUNTIF(H26,$H$23)&amp;" ("&amp; IF(F26=$F$23,"Estrutura, ","") &amp; IF(G26=$G$23,"Ano, ","") &amp;IF(H26=$H$23,"Material","") &amp; IF(OR(F26=$F$23,G26=$G$23,H26=$H$23),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E26" s="55" t="e">
+      <c r="E26" s="48" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F26" s="26">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="26">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F26" s="26">
-        <f>VLOOKUP(C26,$S$1:$V$12,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G26" s="26">
-        <f>VLOOKUP(C26,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H26" s="26" t="str">
-        <f>VLOOKUP(C26,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J26" s="50"/>
+        <f t="shared" si="40"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J26" s="53"/>
       <c r="K26" s="18"/>
       <c r="L26" s="18"/>
       <c r="M26" s="21" t="str">
-        <f t="shared" ref="M26:M29" si="40">COUNTIF(O26,$O$24)+COUNTIF(P26,$P$24)+COUNTIF(Q26,$Q$24)&amp;" ("&amp; IF(O26=$O$24,"Estrutura, ","") &amp; IF(P26=$P$24,"Ano, ","") &amp;IF(Q26=$Q$24,"Material","") &amp; IF(OR(O26=$O$24,P26=$P$24,Q26=$Q$24),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M26:M29" si="44">COUNTIF(O26,$O$24)+COUNTIF(P26,$P$24)+COUNTIF(Q26,$Q$24)&amp;" ("&amp; IF(O26=$O$24,"Estrutura, ","") &amp; IF(P26=$P$24,"Ano, ","") &amp;IF(Q26=$Q$24,"Material","") &amp; IF(OR(O26=$O$24,P26=$P$24,Q26=$Q$24),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N26" s="55" t="e">
-        <f t="shared" ref="N26:N29" si="41">K26/SUM($K$24:$K$29)</f>
+      <c r="N26" s="48" t="e">
+        <f t="shared" ref="N26:N29" si="45">K26/SUM($K$24:$K$29)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O26" s="26">
-        <f t="shared" ref="O26:O29" si="42">VLOOKUP(L26,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O26:O29" si="46">VLOOKUP(L26,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P26" s="26">
-        <f t="shared" si="37"/>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Q26" s="26" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" si="42"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="27" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="50"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="18"/>
       <c r="C27" s="18"/>
       <c r="D27" s="21" t="str">
         <f>COUNTIF(F27,$F$23)+COUNTIF(G27,$G$23)+COUNTIF(H27,$H$23)&amp;" ("&amp; IF(F27=$F$23,"Estrutura, ","") &amp; IF(G27=$G$23,"Ano, ","") &amp;IF(H27=$H$23,"Material","") &amp; IF(OR(F27=$F$23,G27=$G$23,H27=$H$23),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E27" s="55" t="e">
+      <c r="E27" s="48" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="26">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G27" s="26">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="26">
-        <f>VLOOKUP(C27,$S$1:$V$12,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G27" s="26">
-        <f>VLOOKUP(C27,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H27" s="26" t="str">
-        <f>VLOOKUP(C27,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J27" s="50"/>
+        <f t="shared" si="40"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J27" s="53"/>
       <c r="K27" s="18"/>
       <c r="L27" s="18"/>
       <c r="M27" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N27" s="55" t="e">
+      <c r="N27" s="48" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O27" s="26">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P27" s="26">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O27" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="26" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P27" s="26">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="26" t="str">
-        <f t="shared" si="38"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="28" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="18"/>
       <c r="C28" s="18"/>
       <c r="D28" s="21" t="str">
         <f>COUNTIF(F28,$F$23)+COUNTIF(G28,$G$23)+COUNTIF(H28,$H$23)&amp;" ("&amp; IF(F28=$F$23,"Estrutura, ","") &amp; IF(G28=$G$23,"Ano, ","") &amp;IF(H28=$H$23,"Material","") &amp; IF(OR(F28=$F$23,G28=$G$23,H28=$H$23),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
-      <c r="E28" s="55" t="e">
+      <c r="E28" s="48" t="e">
+        <f t="shared" si="43"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F28" s="26">
+        <f t="shared" si="38"/>
+        <v>0</v>
+      </c>
+      <c r="G28" s="26">
         <f t="shared" si="39"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F28" s="26">
-        <f>VLOOKUP(C28,$S$1:$V$12,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G28" s="26">
-        <f>VLOOKUP(C28,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H28" s="26" t="str">
-        <f>VLOOKUP(C28,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J28" s="50"/>
+        <f t="shared" si="40"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J28" s="53"/>
       <c r="K28" s="18"/>
       <c r="L28" s="18"/>
       <c r="M28" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N28" s="55" t="e">
+      <c r="N28" s="48" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O28" s="26">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P28" s="26">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O28" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="26" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P28" s="26">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="26" t="str">
-        <f t="shared" si="38"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="29" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J29" s="50"/>
+      <c r="J29" s="53"/>
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
       <c r="M29" s="21" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" si="44"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N29" s="55" t="e">
+      <c r="N29" s="48" t="e">
+        <f t="shared" si="45"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O29" s="26">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="P29" s="26">
         <f t="shared" si="41"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O29" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="26" t="str">
         <f t="shared" si="42"/>
-        <v>0</v>
-      </c>
-      <c r="P29" s="26">
-        <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="26" t="str">
-        <f t="shared" si="38"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="30" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="50" t="s">
+      <c r="A30" s="53" t="s">
         <v>38</v>
       </c>
       <c r="B30" s="22"/>
@@ -3665,7 +3662,7 @@
       </c>
     </row>
     <row r="31" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="50"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="21" t="str">
@@ -3673,22 +3670,22 @@
         <v>0 (Nenhuma)</v>
       </c>
       <c r="E31" s="28" t="e">
-        <f>C31/SUM($C$31:$C$35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F31" s="58">
-        <f t="shared" ref="F31:F35" si="43">VLOOKUP(C31,$S$1:$V$12,2,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="G31" s="58">
-        <f t="shared" ref="G31:G35" si="44">VLOOKUP(C31,$S$1:$V$12,3,FALSE)</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="58" t="str">
-        <f t="shared" ref="H31:H35" si="45">VLOOKUP(C31,$S$1:$V$12,4,FALSE)</f>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J31" s="50" t="s">
+        <f>B31/SUM($B$31:$B$35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F31" s="26">
+        <f t="shared" ref="F31:F35" si="47">VLOOKUP(C31,$S$1:$V$12,2,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="26">
+        <f t="shared" ref="G31:G35" si="48">VLOOKUP(C31,$S$1:$V$12,3,FALSE)</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="26" t="str">
+        <f t="shared" ref="H31:H35" si="49">VLOOKUP(C31,$S$1:$V$12,4,FALSE)</f>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J31" s="53" t="s">
         <v>61</v>
       </c>
       <c r="K31" s="22"/>
@@ -3703,46 +3700,46 @@
         <v>0</v>
       </c>
       <c r="P31" s="25">
-        <f t="shared" ref="P31:P35" si="46">VLOOKUP(L31,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P31:P35" si="50">VLOOKUP(L31,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q31" s="25" t="str">
-        <f t="shared" ref="Q31:Q35" si="47">VLOOKUP(L31,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q31:Q35" si="51">VLOOKUP(L31,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="32" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="50"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="21" t="str">
-        <f t="shared" ref="D32:D35" si="48">COUNTIF(F32,$F$30)+COUNTIF(G32,$G$30)+COUNTIF(H32,$H$30)&amp;" ("&amp; IF(F32=$F$30,"Estrutura, ","") &amp; IF(G32=$G$30,"Ano, ","") &amp;IF(H32=$H$30,"Material","") &amp; IF(OR(F32=$F$30,G32=$G$30,H32=$H$30),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="D32:D35" si="52">COUNTIF(F32,$F$30)+COUNTIF(G32,$G$30)+COUNTIF(H32,$H$30)&amp;" ("&amp; IF(F32=$F$30,"Estrutura, ","") &amp; IF(G32=$G$30,"Ano, ","") &amp;IF(H32=$H$30,"Material","") &amp; IF(OR(F32=$F$30,G32=$G$30,H32=$H$30),"","Nenhuma") &amp;")"</f>
         <v>0 (Nenhuma)</v>
       </c>
       <c r="E32" s="28" t="e">
-        <f t="shared" ref="E32:E35" si="49">C32/SUM($C$31:$C$35)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F32" s="58">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="G32" s="58">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H32" s="58" t="str">
-        <f t="shared" si="45"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J32" s="50"/>
+        <f t="shared" ref="E32:E35" si="53">B32/SUM($B$31:$B$35)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F32" s="26">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G32" s="26">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="26" t="str">
+        <f t="shared" si="49"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J32" s="53"/>
       <c r="K32" s="18"/>
       <c r="L32" s="18"/>
       <c r="M32" s="21" t="str">
         <f>COUNTIF(O32,$O$31)+COUNTIF(P32,$P$31)+COUNTIF(Q32,$Q$31)&amp;" ("&amp; IF(O32=$O$31,"Estrutura, ","") &amp; IF(P32=$P$31,"Ano, ","") &amp;IF(Q32=$Q$31,"Material","") &amp; IF(OR(O32=$O$31,P32=$P$31,Q32=$Q$31),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N32" s="55" t="e">
+      <c r="N32" s="48" t="e">
         <f>K32/SUM($K$31:$K$36)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3751,185 +3748,185 @@
         <v>0</v>
       </c>
       <c r="P32" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q32" s="26" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="50"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="21" t="str">
+        <f t="shared" si="52"/>
+        <v>0 (Nenhuma)</v>
+      </c>
+      <c r="E33" s="28" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F33" s="26">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G33" s="26">
         <f t="shared" si="48"/>
-        <v>0 (Nenhuma)</v>
-      </c>
-      <c r="E33" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="H33" s="26" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F33" s="58">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="58">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="58" t="str">
-        <f t="shared" si="45"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J33" s="50"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J33" s="53"/>
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
       <c r="M33" s="21" t="str">
-        <f t="shared" ref="M33:M36" si="50">COUNTIF(O33,$O$31)+COUNTIF(P33,$P$31)+COUNTIF(Q33,$Q$31)&amp;" ("&amp; IF(O33=$O$31,"Estrutura, ","") &amp; IF(P33=$P$31,"Ano, ","") &amp;IF(Q33=$Q$31,"Material","") &amp; IF(OR(O33=$O$31,P33=$P$31,Q33=$Q$31),"","Nenhuma") &amp;")"</f>
+        <f t="shared" ref="M33:M36" si="54">COUNTIF(O33,$O$31)+COUNTIF(P33,$P$31)+COUNTIF(Q33,$Q$31)&amp;" ("&amp; IF(O33=$O$31,"Estrutura, ","") &amp; IF(P33=$P$31,"Ano, ","") &amp;IF(Q33=$Q$31,"Material","") &amp; IF(OR(O33=$O$31,P33=$P$31,Q33=$Q$31),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N33" s="55" t="e">
-        <f t="shared" ref="N33:N36" si="51">K33/SUM($K$31:$K$36)</f>
+      <c r="N33" s="48" t="e">
+        <f t="shared" ref="N33:N36" si="55">K33/SUM($K$31:$K$36)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O33" s="26">
-        <f t="shared" ref="O33:O35" si="52">VLOOKUP(L33,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O33:O35" si="56">VLOOKUP(L33,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P33" s="26">
-        <f t="shared" si="46"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="Q33" s="26" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" si="51"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="34" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="50"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="21" t="str">
+        <f t="shared" si="52"/>
+        <v>0 (Nenhuma)</v>
+      </c>
+      <c r="E34" s="28" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F34" s="26">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G34" s="26">
         <f t="shared" si="48"/>
-        <v>0 (Nenhuma)</v>
-      </c>
-      <c r="E34" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="H34" s="26" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F34" s="58">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="G34" s="58">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H34" s="58" t="str">
-        <f t="shared" si="45"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J34" s="50"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J34" s="53"/>
       <c r="K34" s="18"/>
       <c r="L34" s="18"/>
       <c r="M34" s="21" t="str">
+        <f t="shared" si="54"/>
+        <v>3 (Estrutura, Ano, Material)</v>
+      </c>
+      <c r="N34" s="48" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O34" s="26">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P34" s="26">
         <f t="shared" si="50"/>
-        <v>3 (Estrutura, Ano, Material)</v>
-      </c>
-      <c r="N34" s="55" t="e">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="26" t="str">
         <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O34" s="26">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="P34" s="26">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="26" t="str">
-        <f t="shared" si="47"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="50"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="21" t="str">
+        <f t="shared" si="52"/>
+        <v>0 (Nenhuma)</v>
+      </c>
+      <c r="E35" s="28" t="e">
+        <f t="shared" si="53"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F35" s="26">
+        <f t="shared" si="47"/>
+        <v>0</v>
+      </c>
+      <c r="G35" s="26">
         <f t="shared" si="48"/>
-        <v>0 (Nenhuma)</v>
-      </c>
-      <c r="E35" s="28" t="e">
+        <v>0</v>
+      </c>
+      <c r="H35" s="26" t="str">
         <f t="shared" si="49"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F35" s="58">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="G35" s="58">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="H35" s="58" t="str">
-        <f t="shared" si="45"/>
-        <v>Alvenaria</v>
-      </c>
-      <c r="J35" s="50"/>
+        <v>Alvenaria</v>
+      </c>
+      <c r="J35" s="53"/>
       <c r="K35" s="18"/>
       <c r="L35" s="18"/>
       <c r="M35" s="21" t="str">
+        <f t="shared" si="54"/>
+        <v>3 (Estrutura, Ano, Material)</v>
+      </c>
+      <c r="N35" s="48" t="e">
+        <f t="shared" si="55"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O35" s="26">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="P35" s="26">
         <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="26" t="str">
+        <f t="shared" si="51"/>
+        <v>Alvenaria</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="53"/>
+      <c r="K36" s="18"/>
+      <c r="L36" s="18"/>
+      <c r="M36" s="21" t="str">
+        <f t="shared" si="54"/>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="N35" s="55" t="e">
-        <f t="shared" si="51"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O35" s="26">
-        <f t="shared" si="52"/>
-        <v>0</v>
-      </c>
-      <c r="P35" s="26">
-        <f t="shared" si="46"/>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="26" t="str">
-        <f t="shared" si="47"/>
-        <v>Alvenaria</v>
-      </c>
-    </row>
-    <row r="36" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="J36" s="50"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="21" t="str">
-        <f t="shared" si="50"/>
-        <v>3 (Estrutura, Ano, Material)</v>
-      </c>
-      <c r="N36" s="55" t="e">
-        <f t="shared" si="51"/>
+      <c r="N36" s="48" t="e">
+        <f t="shared" si="55"/>
         <v>#DIV/0!</v>
       </c>
       <c r="O36" s="26">
-        <f t="shared" ref="O36" si="53">VLOOKUP(L36,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="O36" si="57">VLOOKUP(L36,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="P36" s="26">
-        <f t="shared" ref="P36" si="54">VLOOKUP(L36,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="P36" si="58">VLOOKUP(L36,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="Q36" s="26" t="str">
-        <f t="shared" ref="Q36" si="55">VLOOKUP(L36,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="Q36" si="59">VLOOKUP(L36,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="50" t="s">
+      <c r="A37" s="53" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="22"/>
@@ -3940,140 +3937,140 @@
       </c>
       <c r="E37" s="40"/>
       <c r="F37" s="25">
-        <f t="shared" ref="F37:F41" si="56">VLOOKUP(C37,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F37:F41" si="60">VLOOKUP(C37,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G37" s="25">
-        <f t="shared" ref="G37:G41" si="57">VLOOKUP(C37,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G37:G41" si="61">VLOOKUP(C37,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H37" s="25" t="str">
-        <f t="shared" ref="H37:H41" si="58">VLOOKUP(C37,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="H37:H41" si="62">VLOOKUP(C37,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="50"/>
+      <c r="A38" s="53"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
       <c r="D38" s="21" t="str">
         <f>COUNTIF(F38,$F$37)+COUNTIF(G38,$G$37)+COUNTIF(H38,$H$37)&amp;" ("&amp; IF(F38=$F$37,"Estrutura, ","") &amp; IF(G38=$G$37,"Ano, ","") &amp;IF(H38=$H$37,"Material","") &amp; IF(OR(F38=$F$37,G38=$G$37,H38=$H$37),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="E38" s="55" t="e">
+      <c r="E38" s="48" t="e">
         <f>B38/SUM($B$37:$B$42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F38" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G38" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H38" s="26" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="50"/>
+      <c r="A39" s="53"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
       <c r="D39" s="21" t="str">
         <f>COUNTIF(F39,$F$37)+COUNTIF(G39,$G$37)+COUNTIF(H39,$H$37)&amp;" ("&amp; IF(F39=$F$37,"Estrutura, ","") &amp; IF(G39=$G$37,"Ano, ","") &amp;IF(H39=$H$37,"Material","") &amp; IF(OR(F39=$F$37,G39=$G$37,H39=$H$37),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="E39" s="55" t="e">
-        <f t="shared" ref="E39:E42" si="59">B39/SUM($B$37:$B$42)</f>
+      <c r="E39" s="48" t="e">
+        <f t="shared" ref="E39:E42" si="63">B39/SUM($B$37:$B$42)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F39" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G39" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H39" s="26" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="50"/>
+      <c r="A40" s="53"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="21" t="str">
         <f>COUNTIF(F40,$F$37)+COUNTIF(G40,$G$37)+COUNTIF(H40,$H$37)&amp;" ("&amp; IF(F40=$F$37,"Estrutura, ","") &amp; IF(G40=$G$37,"Ano, ","") &amp;IF(H40=$H$37,"Material","") &amp; IF(OR(F40=$F$37,G40=$G$37,H40=$H$37),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="E40" s="55" t="e">
-        <f t="shared" si="59"/>
+      <c r="E40" s="48" t="e">
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F40" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G40" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H40" s="26" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="50"/>
+      <c r="A41" s="53"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
       <c r="D41" s="21" t="str">
         <f>COUNTIF(F41,$F$37)+COUNTIF(G41,$G$37)+COUNTIF(H41,$H$37)&amp;" ("&amp; IF(F41=$F$37,"Estrutura, ","") &amp; IF(G41=$G$37,"Ano, ","") &amp;IF(H41=$H$37,"Material","") &amp; IF(OR(F41=$F$37,G41=$G$37,H41=$H$37),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="E41" s="55" t="e">
-        <f t="shared" si="59"/>
+      <c r="E41" s="48" t="e">
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F41" s="26">
-        <f t="shared" si="56"/>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="G41" s="26">
-        <f t="shared" si="57"/>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="H41" s="26" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" si="62"/>
         <v>Alvenaria</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="20" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="50"/>
+      <c r="A42" s="53"/>
       <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="21" t="str">
         <f>COUNTIF(F42,$F$37)+COUNTIF(G42,$G$37)+COUNTIF(H42,$H$37)&amp;" ("&amp; IF(F42=$F$37,"Estrutura, ","") &amp; IF(G42=$G$37,"Ano, ","") &amp;IF(H42=$H$37,"Material","") &amp; IF(OR(F42=$F$37,G42=$G$37,H42=$H$37),"","Nenhuma") &amp;")"</f>
         <v>3 (Estrutura, Ano, Material)</v>
       </c>
-      <c r="E42" s="55" t="e">
-        <f t="shared" si="59"/>
+      <c r="E42" s="48" t="e">
+        <f t="shared" si="63"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F42" s="26">
-        <f t="shared" ref="F42" si="60">VLOOKUP(C42,$S$1:$V$12,2,FALSE)</f>
+        <f t="shared" ref="F42" si="64">VLOOKUP(C42,$S$1:$V$12,2,FALSE)</f>
         <v>0</v>
       </c>
       <c r="G42" s="26">
-        <f t="shared" ref="G42" si="61">VLOOKUP(C42,$S$1:$V$12,3,FALSE)</f>
+        <f t="shared" ref="G42" si="65">VLOOKUP(C42,$S$1:$V$12,3,FALSE)</f>
         <v>0</v>
       </c>
       <c r="H42" s="26" t="str">
-        <f t="shared" ref="H42" si="62">VLOOKUP(C42,$S$1:$V$12,4,FALSE)</f>
+        <f t="shared" ref="H42" si="66">VLOOKUP(C42,$S$1:$V$12,4,FALSE)</f>
         <v>Alvenaria</v>
       </c>
     </row>

--- a/Resultados/Material + Ano + Estrutura/Template.xlsx
+++ b/Resultados/Material + Ano + Estrutura/Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr codeName="EsteLivro" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\beatr\Documents\GitHub\SAFENET-Bea\Resultados\Material + Ano + Estrutura\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9488C0BD-E06D-4E94-9AB4-AC4D52E79240}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A264F0F3-A15E-4520-8485-93344C444D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{44EB1693-29A4-4AD6-9832-A8AEAD2DC94E}"/>
   </bookViews>
@@ -1249,8 +1249,8 @@
   <sheetPr codeName="Folha1"/>
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1499,7 +1499,7 @@
   <dimension ref="N1:O44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1751,7 +1751,7 @@
   <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P3" sqref="P3:P13"/>
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2145,8 +2145,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB454C8-93BE-43D4-99C2-717E269EE6C9}">
   <dimension ref="A1:AA42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
@@ -4100,7 +4100,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B2" sqref="B2:E12"/>
+      <selection pane="topRight" activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
